--- a/data/trans_camb/DC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DC-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,42</t>
+          <t>-2,31; 2,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; -0,24</t>
+          <t>-4,15; -0,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 9,8</t>
+          <t>-0,04; 10,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,41</t>
+          <t>-9,42; 0,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; -5,04</t>
+          <t>-14,07; -5,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 13,26</t>
+          <t>-1,24; 13,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,44</t>
+          <t>-4,6; 0,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -2,97</t>
+          <t>-7,97; -3,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 9,64</t>
+          <t>0,41; 8,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 95,95</t>
+          <t>-52,53; 102,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,25; -1,84</t>
+          <t>-85,19; 1,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 339,5</t>
+          <t>-10,0; 408,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 3,12</t>
+          <t>-45,95; 4,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,15; -29,32</t>
+          <t>-67,09; -29,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 78,62</t>
+          <t>-7,29; 79,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 5,13</t>
+          <t>-39,41; 8,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,54; -31,39</t>
+          <t>-66,65; -33,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 100,45</t>
+          <t>2,9; 93,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; -0,2</t>
+          <t>-5,49; -0,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -2,32</t>
+          <t>-7,39; -2,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,74</t>
+          <t>-2,16; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -1,89</t>
+          <t>-10,49; -2,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -3,09</t>
+          <t>-10,9; -2,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 18,98</t>
+          <t>4,95; 19,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -2,0</t>
+          <t>-6,72; -1,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; -3,25</t>
+          <t>-7,8; -3,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 12,23</t>
+          <t>3,56; 12,4</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,22; -2,26</t>
+          <t>-55,99; -1,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,3; -28,62</t>
+          <t>-76,01; -31,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 79,77</t>
+          <t>-24,05; 85,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,17; -11,91</t>
+          <t>-51,48; -13,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,9; -19,95</t>
+          <t>-54,63; -19,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 113,14</t>
+          <t>22,93; 116,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,86; -16,24</t>
+          <t>-48,14; -15,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,26; -26,8</t>
+          <t>-55,7; -26,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,16; 102,05</t>
+          <t>24,58; 104,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -4,23</t>
+          <t>-10,88; -4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -5,28</t>
+          <t>-11,68; -4,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,99</t>
+          <t>-4,34; 4,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,08</t>
+          <t>-6,45; 2,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -2,24</t>
+          <t>-10,24; -2,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,58</t>
+          <t>6,79; 16,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -2,27</t>
+          <t>-7,31; -2,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -4,82</t>
+          <t>-9,86; -4,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,91</t>
+          <t>3,13; 9,31</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,32; -31,94</t>
+          <t>-66,6; -33,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,62; -37,42</t>
+          <t>-69,98; -38,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 32,11</t>
+          <t>-26,74; 35,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 14,06</t>
+          <t>-33,39; 13,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,39; -14,41</t>
+          <t>-53,41; -18,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,86; 111,82</t>
+          <t>35,13; 110,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,39; -15,74</t>
+          <t>-42,53; -15,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,41; -33,7</t>
+          <t>-56,6; -32,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,66; 61,24</t>
+          <t>17,46; 64,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -6,45</t>
+          <t>-14,52; -6,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -7,14</t>
+          <t>-15,49; -6,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 7,9</t>
+          <t>-3,46; 8,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -0,4</t>
+          <t>-10,38; -0,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -4,1</t>
+          <t>-13,51; -4,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,26; 18,64</t>
+          <t>9,15; 19,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,3; -4,87</t>
+          <t>-11,2; -4,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -7,01</t>
+          <t>-13,12; -6,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 11,81</t>
+          <t>3,7; 11,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,83; -36,43</t>
+          <t>-65,38; -35,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,81; -39,37</t>
+          <t>-68,66; -39,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 45,51</t>
+          <t>-15,15; 46,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,55; -2,1</t>
+          <t>-40,98; -4,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,31; -21,16</t>
+          <t>-53,9; -20,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,78; 95,76</t>
+          <t>35,5; 97,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,18; -24,47</t>
+          <t>-48,45; -24,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,76; -35,73</t>
+          <t>-57,09; -34,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,67; 58,89</t>
+          <t>16,95; 61,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,29; -10,53</t>
+          <t>-21,59; -10,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -10,12</t>
+          <t>-20,59; -9,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 5,96</t>
+          <t>-5,63; 5,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 3,11</t>
+          <t>-9,32; 2,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -1,93</t>
+          <t>-13,66; -1,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,82; 20,88</t>
+          <t>9,64; 20,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -5,44</t>
+          <t>-13,78; -5,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,74; -7,7</t>
+          <t>-15,32; -7,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,5</t>
+          <t>4,0; 12,02</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,79; -40,01</t>
+          <t>-66,83; -39,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,52; -37,99</t>
+          <t>-64,93; -37,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 23,69</t>
+          <t>-17,45; 23,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 11,94</t>
+          <t>-29,49; 10,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,05; -7,49</t>
+          <t>-42,37; -7,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,21; 83,3</t>
+          <t>30,38; 81,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,5; -19,73</t>
+          <t>-44,6; -19,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,43; -28,33</t>
+          <t>-49,36; -25,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,9; 43,37</t>
+          <t>12,56; 46,32</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,95; -3,84</t>
+          <t>-13,66; -2,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -7,86</t>
+          <t>-17,11; -7,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 9,58</t>
+          <t>-0,21; 9,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 3,71</t>
+          <t>-6,4; 3,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -8,85</t>
+          <t>-18,34; -8,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,38; 35,21</t>
+          <t>16,15; 37,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -0,8</t>
+          <t>-8,15; -1,01</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,99; -9,76</t>
+          <t>-16,67; -9,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,38; 26,68</t>
+          <t>11,06; 26,81</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -13,31</t>
+          <t>-41,81; -10,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,96; -28,08</t>
+          <t>-52,24; -27,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 34,62</t>
+          <t>-0,69; 35,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 11,19</t>
+          <t>-16,58; 11,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -26,87</t>
+          <t>-47,89; -25,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>42,29; 103,49</t>
+          <t>41,28; 107,43</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,96; -2,49</t>
+          <t>-22,94; -3,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,82; -30,64</t>
+          <t>-47,41; -30,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>32,58; 80,88</t>
+          <t>31,28; 82,79</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -5,14</t>
+          <t>-8,31; -5,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -6,31</t>
+          <t>-9,32; -6,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,4</t>
+          <t>3,17; 7,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -1,33</t>
+          <t>-5,23; -1,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -6,26</t>
+          <t>-10,16; -6,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,06; 22,22</t>
+          <t>14,29; 22,69</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -3,63</t>
+          <t>-6,31; -3,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -6,72</t>
+          <t>-9,22; -6,87</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,22</t>
+          <t>9,79; 15,38</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,83; -32,53</t>
+          <t>-47,57; -31,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-54,37; -39,87</t>
+          <t>-53,91; -39,32</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>19,37; 47,57</t>
+          <t>17,86; 47,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -5,96</t>
+          <t>-21,38; -4,85</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -28,04</t>
+          <t>-41,52; -28,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>57,47; 95,9</t>
+          <t>58,91; 99,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -18,97</t>
+          <t>-30,45; -19,46</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-44,69; -35,05</t>
+          <t>-44,98; -35,69</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>47,25; 76,67</t>
+          <t>47,68; 76,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DC-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,44</t>
+          <t>-2,45; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -0,26</t>
+          <t>-4,24; -0,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 10,77</t>
+          <t>-0,11; 10,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,57</t>
+          <t>-9,2; 0,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,07; -5,04</t>
+          <t>-13,75; -4,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 13,63</t>
+          <t>-0,71; 13,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,88</t>
+          <t>-5,08; 0,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -3,07</t>
+          <t>-8,18; -3,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 8,95</t>
+          <t>0,47; 9,23</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 102,61</t>
+          <t>-52,38; 102,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,19; 1,49</t>
+          <t>-85,71; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 408,0</t>
+          <t>-9,42; 380,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 4,55</t>
+          <t>-44,63; 3,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,09; -29,73</t>
+          <t>-66,49; -28,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 79,88</t>
+          <t>-3,93; 84,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 8,82</t>
+          <t>-41,56; 7,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,65; -33,26</t>
+          <t>-67,84; -33,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 93,0</t>
+          <t>3,57; 94,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -0,32</t>
+          <t>-5,46; -0,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; -2,26</t>
+          <t>-7,29; -1,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,25</t>
+          <t>-2,27; 6,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -2,13</t>
+          <t>-10,08; -2,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -2,94</t>
+          <t>-11,25; -3,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 19,19</t>
+          <t>4,89; 18,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -1,78</t>
+          <t>-6,72; -1,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -3,22</t>
+          <t>-7,95; -3,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,4</t>
+          <t>3,4; 12,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,99; -1,45</t>
+          <t>-55,45; -2,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,01; -31,63</t>
+          <t>-75,33; -26,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 85,83</t>
+          <t>-24,52; 91,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,48; -13,37</t>
+          <t>-50,69; -12,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,63; -19,3</t>
+          <t>-55,22; -19,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 116,85</t>
+          <t>22,71; 114,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,14; -15,6</t>
+          <t>-48,53; -15,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,7; -26,7</t>
+          <t>-55,85; -26,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 104,28</t>
+          <t>22,6; 101,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -4,11</t>
+          <t>-11,19; -4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -4,89</t>
+          <t>-11,88; -4,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,42</t>
+          <t>-4,05; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,04</t>
+          <t>-6,48; 1,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,24; -2,73</t>
+          <t>-10,33; -2,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 16,62</t>
+          <t>6,68; 16,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -2,18</t>
+          <t>-7,53; -2,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -4,64</t>
+          <t>-10,14; -4,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,31</t>
+          <t>3,36; 9,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,6; -33,45</t>
+          <t>-66,04; -31,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,98; -38,36</t>
+          <t>-70,94; -37,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 35,51</t>
+          <t>-25,55; 30,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 13,7</t>
+          <t>-33,64; 10,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,41; -18,19</t>
+          <t>-53,66; -16,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,13; 110,5</t>
+          <t>35,39; 111,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,53; -15,01</t>
+          <t>-44,43; -14,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,6; -32,18</t>
+          <t>-57,16; -33,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,46; 64,88</t>
+          <t>19,68; 64,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -6,05</t>
+          <t>-15,31; -6,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -6,89</t>
+          <t>-15,36; -7,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 8,27</t>
+          <t>-3,28; 8,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -0,79</t>
+          <t>-10,28; -0,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -4,16</t>
+          <t>-13,76; -5,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,15; 19,31</t>
+          <t>8,8; 19,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -4,81</t>
+          <t>-11,14; -4,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,12; -6,63</t>
+          <t>-13,46; -7,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 11,91</t>
+          <t>4,24; 11,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,38; -35,69</t>
+          <t>-66,42; -36,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,66; -39,59</t>
+          <t>-67,69; -40,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 46,72</t>
+          <t>-14,19; 45,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,98; -4,25</t>
+          <t>-42,4; -3,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,9; -20,42</t>
+          <t>-53,87; -23,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,5; 97,43</t>
+          <t>33,35; 96,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,45; -24,87</t>
+          <t>-48,44; -23,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,09; -34,11</t>
+          <t>-57,1; -35,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,95; 61,9</t>
+          <t>18,68; 61,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,59; -10,4</t>
+          <t>-21,57; -10,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -9,6</t>
+          <t>-20,9; -10,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 5,97</t>
+          <t>-5,38; 6,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 2,86</t>
+          <t>-9,47; 3,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -1,97</t>
+          <t>-13,74; -1,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,64; 20,55</t>
+          <t>9,58; 20,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -5,21</t>
+          <t>-13,47; -4,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -7,1</t>
+          <t>-15,68; -7,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,02</t>
+          <t>3,96; 11,8</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,83; -39,75</t>
+          <t>-66,76; -39,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,93; -37,25</t>
+          <t>-64,33; -37,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 23,32</t>
+          <t>-16,53; 25,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 10,78</t>
+          <t>-29,22; 12,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -7,45</t>
+          <t>-41,91; -5,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>30,38; 81,96</t>
+          <t>28,92; 80,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,6; -19,15</t>
+          <t>-42,9; -18,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,36; -25,51</t>
+          <t>-50,25; -29,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,56; 46,32</t>
+          <t>12,88; 46,21</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -2,81</t>
+          <t>-13,58; -2,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -7,39</t>
+          <t>-17,56; -7,69</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,54</t>
+          <t>-0,33; 9,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 3,75</t>
+          <t>-6,48; 3,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -8,47</t>
+          <t>-17,75; -8,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,15; 37,15</t>
+          <t>16,57; 36,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -1,01</t>
+          <t>-7,99; -0,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -9,65</t>
+          <t>-16,78; -9,61</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,06; 26,81</t>
+          <t>10,99; 27,98</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-41,81; -10,14</t>
+          <t>-41,74; -11,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,24; -27,36</t>
+          <t>-53,19; -27,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 35,84</t>
+          <t>-1,38; 35,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 11,33</t>
+          <t>-17,39; 10,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-47,89; -25,96</t>
+          <t>-47,03; -24,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>41,28; 107,43</t>
+          <t>44,21; 106,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,94; -3,27</t>
+          <t>-22,52; -2,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,41; -30,49</t>
+          <t>-47,63; -30,62</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>31,28; 82,79</t>
+          <t>31,25; 82,21</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,31; -5,01</t>
+          <t>-8,17; -4,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -6,14</t>
+          <t>-9,36; -6,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,43</t>
+          <t>3,05; 7,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -1,11</t>
+          <t>-5,24; -1,21</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,16; -6,37</t>
+          <t>-10,26; -6,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,69</t>
+          <t>14,27; 22,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -3,76</t>
+          <t>-6,24; -3,59</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -6,87</t>
+          <t>-9,16; -6,67</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,38</t>
+          <t>9,79; 15,53</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -31,96</t>
+          <t>-47,56; -31,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-53,91; -39,32</t>
+          <t>-54,36; -39,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>17,86; 47,98</t>
+          <t>17,7; 47,54</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -4,85</t>
+          <t>-21,61; -5,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-41,52; -28,39</t>
+          <t>-41,66; -28,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>58,91; 99,15</t>
+          <t>59,5; 100,86</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-30,45; -19,46</t>
+          <t>-30,22; -18,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-44,98; -35,69</t>
+          <t>-44,56; -34,59</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>47,68; 76,58</t>
+          <t>47,81; 80,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DC-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,57</t>
+          <t>-2,32; 2,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; -0,17</t>
+          <t>-3,99; -0,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 10,52</t>
+          <t>-0,17; 9,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 0,31</t>
+          <t>-9,32; 0,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -4,84</t>
+          <t>-13,64; -5,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 13,81</t>
+          <t>-1,76; 13,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 0,63</t>
+          <t>-4,78; 0,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -3,29</t>
+          <t>-7,99; -2,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 9,23</t>
+          <t>0,82; 9,64</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 102,72</t>
+          <t>-50,83; 95,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,71; 2,56</t>
+          <t>-86,25; -1,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 380,42</t>
+          <t>-12,17; 339,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 3,15</t>
+          <t>-45,55; 3,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,49; -28,31</t>
+          <t>-66,15; -29,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 84,42</t>
+          <t>-9,53; 78,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,56; 7,63</t>
+          <t>-40,84; 5,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,84; -33,82</t>
+          <t>-66,54; -31,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 94,67</t>
+          <t>6,6; 100,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; -0,21</t>
+          <t>-5,31; -0,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -1,96</t>
+          <t>-7,48; -2,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,43</t>
+          <t>-2,11; 5,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -2,08</t>
+          <t>-9,7; -1,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -3,24</t>
+          <t>-10,88; -3,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 18,42</t>
+          <t>4,94; 18,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -1,77</t>
+          <t>-6,82; -2,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -3,28</t>
+          <t>-8,03; -3,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 12,1</t>
+          <t>3,27; 12,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,45; -2,69</t>
+          <t>-56,22; -2,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,33; -26,44</t>
+          <t>-77,3; -28,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 91,65</t>
+          <t>-22,1; 79,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,69; -12,52</t>
+          <t>-49,17; -11,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,22; -19,79</t>
+          <t>-53,9; -19,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 114,37</t>
+          <t>22,93; 113,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,53; -15,35</t>
+          <t>-47,86; -16,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,85; -26,59</t>
+          <t>-56,26; -26,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 101,65</t>
+          <t>23,16; 102,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -4,15</t>
+          <t>-10,88; -4,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -4,73</t>
+          <t>-11,94; -5,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,94</t>
+          <t>-4,28; 3,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 1,67</t>
+          <t>-5,88; 2,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,33; -2,52</t>
+          <t>-9,96; -2,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 16,25</t>
+          <t>6,71; 16,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; -2,08</t>
+          <t>-7,5; -2,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -4,93</t>
+          <t>-9,85; -4,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,27</t>
+          <t>2,9; 8,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,04; -31,57</t>
+          <t>-66,32; -31,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,94; -37,04</t>
+          <t>-70,62; -37,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 30,92</t>
+          <t>-26,32; 32,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 10,74</t>
+          <t>-31,85; 14,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,66; -16,22</t>
+          <t>-52,39; -14,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,39; 111,23</t>
+          <t>36,86; 111,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,43; -14,88</t>
+          <t>-43,39; -15,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,16; -33,87</t>
+          <t>-57,41; -33,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,68; 64,61</t>
+          <t>15,66; 61,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,31; -6,58</t>
+          <t>-14,78; -6,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -7,03</t>
+          <t>-15,0; -7,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,16</t>
+          <t>-3,64; 7,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -0,66</t>
+          <t>-10,28; -0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; -5,0</t>
+          <t>-13,11; -4,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,8; 19,16</t>
+          <t>9,26; 18,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -4,6</t>
+          <t>-11,3; -4,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -7,08</t>
+          <t>-13,13; -7,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,93</t>
+          <t>4,04; 11,81</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,42; -36,01</t>
+          <t>-65,83; -36,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,69; -40,0</t>
+          <t>-67,81; -39,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 45,56</t>
+          <t>-15,77; 45,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,4; -3,31</t>
+          <t>-40,55; -2,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,87; -23,9</t>
+          <t>-52,31; -21,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,35; 96,53</t>
+          <t>35,78; 95,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,44; -23,23</t>
+          <t>-48,18; -24,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,1; -35,68</t>
+          <t>-56,76; -35,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,68; 61,16</t>
+          <t>16,67; 58,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,57; -10,48</t>
+          <t>-22,29; -10,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,9; -10,09</t>
+          <t>-22,09; -10,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 6,36</t>
+          <t>-5,96; 5,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 3,36</t>
+          <t>-9,22; 3,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -1,44</t>
+          <t>-13,5; -1,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,58; 20,4</t>
+          <t>9,82; 20,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -4,92</t>
+          <t>-13,78; -5,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -7,6</t>
+          <t>-15,74; -7,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,8</t>
+          <t>3,14; 11,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,76; -39,05</t>
+          <t>-67,79; -40,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,33; -37,41</t>
+          <t>-65,52; -37,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 25,15</t>
+          <t>-18,12; 23,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 12,94</t>
+          <t>-28,96; 11,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,91; -5,45</t>
+          <t>-42,05; -7,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>28,92; 80,52</t>
+          <t>29,21; 83,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-42,9; -18,83</t>
+          <t>-43,5; -19,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,25; -29,3</t>
+          <t>-50,43; -28,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,88; 46,21</t>
+          <t>9,9; 43,37</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -2,89</t>
+          <t>-14,95; -3,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -7,69</t>
+          <t>-18,03; -7,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 9,66</t>
+          <t>-0,16; 9,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 3,46</t>
+          <t>-6,79; 3,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -8,1</t>
+          <t>-18,71; -8,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,57; 36,18</t>
+          <t>16,38; 35,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -0,81</t>
+          <t>-8,45; -0,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -9,61</t>
+          <t>-16,99; -9,76</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,99; 27,98</t>
+          <t>11,38; 26,68</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-41,74; -11,05</t>
+          <t>-43,97; -13,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,19; -27,71</t>
+          <t>-53,96; -28,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 35,74</t>
+          <t>-0,63; 34,62</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 10,46</t>
+          <t>-17,57; 11,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-47,03; -24,05</t>
+          <t>-48,65; -26,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>44,21; 106,79</t>
+          <t>42,29; 103,49</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -2,35</t>
+          <t>-23,96; -2,49</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,63; -30,62</t>
+          <t>-47,82; -30,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>31,25; 82,21</t>
+          <t>32,58; 80,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -4,91</t>
+          <t>-8,54; -5,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -6,16</t>
+          <t>-9,46; -6,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,34</t>
+          <t>3,36; 7,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -1,21</t>
+          <t>-5,43; -1,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -6,28</t>
+          <t>-10,28; -6,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,27; 22,73</t>
+          <t>14,06; 22,22</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -3,59</t>
+          <t>-6,23; -3,63</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -6,67</t>
+          <t>-9,17; -6,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,53</t>
+          <t>9,72; 15,22</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -31,77</t>
+          <t>-48,83; -32,53</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-54,36; -39,41</t>
+          <t>-54,37; -39,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>17,7; 47,54</t>
+          <t>19,37; 47,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -5,29</t>
+          <t>-22,36; -5,96</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-41,66; -28,05</t>
+          <t>-42,03; -28,04</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>59,5; 100,86</t>
+          <t>57,47; 95,9</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-30,22; -18,55</t>
+          <t>-30,34; -18,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-44,56; -34,59</t>
+          <t>-44,69; -35,05</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>47,81; 80,64</t>
+          <t>47,25; 76,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DC-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>-11,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>2,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,42</t>
+          <t>-2,91; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; -0,24</t>
+          <t>-5,1; -0,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 9,8</t>
+          <t>-1,01; 9,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,41</t>
+          <t>-10,43; -0,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; -5,04</t>
+          <t>-15,89; -6,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 13,26</t>
+          <t>-4,18; 11,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,44</t>
+          <t>-5,59; 0,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -2,97</t>
+          <t>-9,47; -4,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 9,64</t>
+          <t>-1,38; 7,41</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>-65,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>115,23%</t>
+          <t>84,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,27%</t>
+          <t>-25,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-51,52%</t>
+          <t>-53,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
+          <t>-23,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-52,75%</t>
+          <t>-55,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>20,21%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 95,95</t>
+          <t>-54,19; 72,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,25; -1,84</t>
+          <t>-87,77; -18,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 339,5</t>
+          <t>-27,42; 267,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 3,12</t>
+          <t>-44,41; -0,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,15; -29,32</t>
+          <t>-66,96; -35,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 78,62</t>
+          <t>-19,04; 60,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 5,13</t>
+          <t>-41,02; 1,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,54; -31,39</t>
+          <t>-68,17; -37,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 100,45</t>
+          <t>-10,48; 67,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>-10,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>8,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; -0,2</t>
+          <t>-5,49; -0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -2,32</t>
+          <t>-7,75; -2,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,74</t>
+          <t>-2,57; 5,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -1,89</t>
+          <t>-14,46; -5,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -3,09</t>
+          <t>-15,07; -6,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 18,98</t>
+          <t>0,36; 35,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -2,0</t>
+          <t>-8,92; -3,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; -3,25</t>
+          <t>-10,16; -4,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 12,23</t>
+          <t>0,97; 28,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-34,16%</t>
+          <t>-34,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-58,14%</t>
+          <t>-57,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,8%</t>
+          <t>-41,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-39,04%</t>
+          <t>-45,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-33,38%</t>
+          <t>-38,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-44,1%</t>
+          <t>-47,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>52,45%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,22; -2,26</t>
+          <t>-54,96; -3,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,3; -28,62</t>
+          <t>-76,08; -30,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 79,77</t>
+          <t>-26,71; 71,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,17; -11,91</t>
+          <t>-54,61; -24,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,9; -19,95</t>
+          <t>-56,14; -29,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 113,14</t>
+          <t>0,31; 153,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,86; -16,24</t>
+          <t>-49,66; -24,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,26; -26,8</t>
+          <t>-58,13; -32,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,16; 102,05</t>
+          <t>5,02; 188,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-8,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,34</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>2,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -4,23</t>
+          <t>-11,6; -4,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -5,28</t>
+          <t>-12,09; -4,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,99</t>
+          <t>-5,35; 3,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,08</t>
+          <t>-6,72; 2,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -2,24</t>
+          <t>-14,58; -5,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,58</t>
+          <t>-2,96; 10,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -2,27</t>
+          <t>-8,06; -2,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -4,82</t>
+          <t>-12,39; -6,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,91</t>
+          <t>-1,09; 5,41</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-52,0%</t>
+          <t>-51,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-57,24%</t>
+          <t>-54,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>-6,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,65%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-36,46%</t>
+          <t>-45,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,19%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-30,48%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-46,29%</t>
+          <t>-49,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,32; -31,94</t>
+          <t>-66,58; -32,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,62; -37,42</t>
+          <t>-68,36; -36,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 32,11</t>
+          <t>-31,14; 23,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 14,06</t>
+          <t>-27,04; 11,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,39; -14,41</t>
+          <t>-58,4; -29,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,86; 111,82</t>
+          <t>-10,06; 52,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,39; -15,74</t>
+          <t>-38,44; -12,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,41; -33,7</t>
+          <t>-59,48; -38,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,66; 61,24</t>
+          <t>-5,28; 30,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-11,22</t>
+          <t>-11,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>-10,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,06</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-10,96</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -6,45</t>
+          <t>-15,37; -6,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -7,14</t>
+          <t>-15,27; -6,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 7,9</t>
+          <t>-17,13; 4,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -0,4</t>
+          <t>-11,88; -1,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -4,1</t>
+          <t>-15,38; -5,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,26; 18,64</t>
+          <t>0,96; 13,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,3; -4,87</t>
+          <t>-12,25; -5,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -7,01</t>
+          <t>-14,37; -7,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 11,81</t>
+          <t>-8,87; 7,06</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-53,18%</t>
+          <t>-53,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-56,43%</t>
+          <t>-53,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>-17,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-23,73%</t>
+          <t>-24,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-39,33%</t>
+          <t>-38,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-37,42%</t>
+          <t>-36,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-47,26%</t>
+          <t>-45,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,83; -36,43</t>
+          <t>-65,66; -38,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,81; -39,37</t>
+          <t>-65,16; -37,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 45,51</t>
+          <t>-65,38; 22,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,55; -2,1</t>
+          <t>-39,67; -6,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,31; -21,16</t>
+          <t>-50,25; -22,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,78; 95,76</t>
+          <t>3,57; 51,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,18; -24,47</t>
+          <t>-46,98; -24,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,76; -35,73</t>
+          <t>-54,18; -34,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,67; 58,89</t>
+          <t>-36,61; 30,29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-16,06</t>
+          <t>-18,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-15,34</t>
+          <t>-16,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-7,85</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,09</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-9,42</t>
+          <t>-9,97</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-11,53</t>
+          <t>-11,25</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>5,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,29; -10,53</t>
+          <t>-24,71; -13,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -10,12</t>
+          <t>-23,23; -11,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 5,96</t>
+          <t>-8,67; 3,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 3,11</t>
+          <t>-8,46; 4,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -1,93</t>
+          <t>-12,16; 0,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,82; 20,88</t>
+          <t>7,73; 19,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -5,44</t>
+          <t>-14,27; -5,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,74; -7,7</t>
+          <t>-15,74; -7,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,5</t>
+          <t>1,27; 9,47</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-55,13%</t>
+          <t>-58,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-52,67%</t>
+          <t>-52,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>-6,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-10,57%</t>
+          <t>-5,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-27,12%</t>
+          <t>-19,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>52,09%</t>
+          <t>43,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-32,45%</t>
+          <t>-31,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-39,68%</t>
+          <t>-35,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>17,52%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,79; -40,01</t>
+          <t>-69,35; -44,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,52; -37,99</t>
+          <t>-64,85; -37,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 23,69</t>
+          <t>-23,79; 11,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 11,94</t>
+          <t>-25,54; 16,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,05; -7,49</t>
+          <t>-35,48; 0,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,21; 83,3</t>
+          <t>22,35; 70,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,5; -19,73</t>
+          <t>-41,94; -19,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,43; -28,33</t>
+          <t>-46,14; -24,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,9; 43,37</t>
+          <t>3,28; 32,73</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-12,75</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>-16,99</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>23,09</t>
+          <t>24,07</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-13,21</t>
+          <t>-14,6</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>17,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,95; -3,84</t>
+          <t>-13,42; -0,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -7,86</t>
+          <t>-18,58; -5,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 9,58</t>
+          <t>-4,31; 8,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 3,71</t>
+          <t>-14,1; -0,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -8,85</t>
+          <t>-23,6; -10,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,38; 35,21</t>
+          <t>4,53; 47,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -0,8</t>
+          <t>-11,63; -1,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,99; -9,76</t>
+          <t>-19,3; -10,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,38; 26,68</t>
+          <t>3,22; 43,03</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-28,54%</t>
+          <t>-23,51%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-42,34%</t>
+          <t>-42,61%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,8%</t>
+          <t>-16,32%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-37,77%</t>
+          <t>-41,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-39,61%</t>
+          <t>-41,94%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>49,07%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -13,31</t>
+          <t>-42,87; 0,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,96; -28,08</t>
+          <t>-59,33; -21,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 34,62</t>
+          <t>-13,54; 37,5</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 11,19</t>
+          <t>-31,03; -0,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -26,87</t>
+          <t>-52,67; -27,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>42,29; 103,49</t>
+          <t>10,7; 133,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,96; -2,49</t>
+          <t>-30,89; -5,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,82; -30,64</t>
+          <t>-51,7; -31,1</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>32,58; 80,88</t>
+          <t>8,73; 125,62</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>-13,99</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>21,85</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-8,36</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>15,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -5,14</t>
+          <t>-20,33; -3,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -6,31</t>
+          <t>-22,48; -5,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,4</t>
+          <t>-3,3; 12,66</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -1,33</t>
+          <t>-2,98; 12,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -6,26</t>
+          <t>-13,17; 2,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,06; 22,22</t>
+          <t>15,37; 28,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -3,63</t>
+          <t>-6,92; 4,8</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -6,72</t>
+          <t>-14,15; -2,83</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,22</t>
+          <t>9,6; 19,97</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-40,48%</t>
+          <t>-29,89%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-47,53%</t>
+          <t>-38,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-35,45%</t>
+          <t>-12,74%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-24,73%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-40,24%</t>
+          <t>-22,57%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>40,61%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,83; -32,53</t>
+          <t>-48,69; -8,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-54,37; -39,87</t>
+          <t>-54,3; -18,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>19,37; 47,57</t>
+          <t>-7,57; 40,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -5,96</t>
+          <t>-7,07; 39,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -28,04</t>
+          <t>-31,57; 8,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>57,47; 95,9</t>
+          <t>36,99; 87,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -18,97</t>
+          <t>-17,68; 14,24</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-44,69; -35,05</t>
+          <t>-35,31; -8,63</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>47,25; 76,67</t>
+          <t>23,65; 59,81</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-7,17</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-8,03</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-4,03</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-9,49</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>14,49</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-5,55</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-8,75</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>8,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; -5,53</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; -6,46</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 5,19</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; -1,96</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; -7,43</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 24,86</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; -4,2</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; -7,41</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 15,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-40,96%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-45,88%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-14,44%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-34,07%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>51,99%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-24,38%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-38,42%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>39,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-48,6; -33,0</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-52,57; -38,16</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-9,34; 30,64</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-21,6; -7,21</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-39,64; -27,54</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>34,21; 90,53</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>-29,47; -18,92</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-42,53; -33,43</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>24,01; 68,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/DC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DC-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,29</t>
+          <t>-3,0; 2,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -0,83</t>
+          <t>-5,07; -0,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 9,46</t>
+          <t>-0,63; 9,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -0,23</t>
+          <t>-10,17; -0,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -6,69</t>
+          <t>-15,89; -6,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 11,46</t>
+          <t>-3,88; 11,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,08</t>
+          <t>-5,87; 0,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -4,13</t>
+          <t>-9,48; -4,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 7,41</t>
+          <t>-1,62; 7,1</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 72,94</t>
+          <t>-55,83; 80,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,77; -18,84</t>
+          <t>-88,91; -17,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 267,05</t>
+          <t>-21,83; 286,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,41; -0,8</t>
+          <t>-43,56; -0,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,96; -35,02</t>
+          <t>-66,72; -35,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 60,46</t>
+          <t>-18,67; 57,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 1,42</t>
+          <t>-41,55; 0,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,17; -37,06</t>
+          <t>-68,15; -38,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 67,31</t>
+          <t>-12,53; 64,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -0,31</t>
+          <t>-5,72; -0,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -2,37</t>
+          <t>-7,66; -2,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,33</t>
+          <t>-2,57; 5,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -5,42</t>
+          <t>-14,43; -5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -6,28</t>
+          <t>-15,86; -6,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 35,54</t>
+          <t>-0,22; 34,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -3,59</t>
+          <t>-9,02; -3,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,16; -4,85</t>
+          <t>-10,16; -5,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 28,49</t>
+          <t>1,34; 27,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,96; -3,63</t>
+          <t>-56,5; 0,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,08; -30,07</t>
+          <t>-75,54; -30,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 71,93</t>
+          <t>-26,31; 80,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,61; -24,78</t>
+          <t>-53,44; -25,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,14; -29,38</t>
+          <t>-57,89; -28,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 153,91</t>
+          <t>-1,05; 150,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,66; -24,17</t>
+          <t>-51,05; -25,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,13; -32,3</t>
+          <t>-58,72; -34,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 188,61</t>
+          <t>8,19; 180,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -4,57</t>
+          <t>-11,68; -4,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -4,95</t>
+          <t>-11,89; -4,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 3,14</t>
+          <t>-5,22; 3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,39</t>
+          <t>-6,57; 2,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -5,92</t>
+          <t>-14,39; -6,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 10,87</t>
+          <t>-2,01; 10,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -2,35</t>
+          <t>-8,04; -2,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -6,74</t>
+          <t>-12,26; -7,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,41</t>
+          <t>-1,94; 5,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,58; -32,48</t>
+          <t>-65,44; -32,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,36; -36,54</t>
+          <t>-68,48; -36,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 23,84</t>
+          <t>-30,37; 23,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 11,99</t>
+          <t>-26,77; 10,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,4; -29,75</t>
+          <t>-58,56; -30,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 52,49</t>
+          <t>-6,91; 53,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,44; -12,28</t>
+          <t>-39,66; -12,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,48; -38,46</t>
+          <t>-59,43; -39,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 30,7</t>
+          <t>-10,15; 30,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,37; -6,89</t>
+          <t>-16,02; -7,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,27; -6,92</t>
+          <t>-15,75; -7,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 4,44</t>
+          <t>-15,33; 4,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -1,79</t>
+          <t>-12,06; -2,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -5,68</t>
+          <t>-15,78; -5,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 13,12</t>
+          <t>1,33; 13,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -5,6</t>
+          <t>-12,37; -5,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -7,89</t>
+          <t>-14,34; -7,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,06</t>
+          <t>-10,66; 7,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,66; -38,02</t>
+          <t>-66,71; -38,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,16; -37,18</t>
+          <t>-66,5; -38,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,38; 22,54</t>
+          <t>-64,48; 23,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,67; -6,87</t>
+          <t>-38,92; -7,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,25; -22,15</t>
+          <t>-51,51; -23,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,57; 51,82</t>
+          <t>5,01; 54,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -24,48</t>
+          <t>-47,06; -24,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,18; -34,5</t>
+          <t>-54,12; -34,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 30,29</t>
+          <t>-41,01; 31,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-24,71; -13,11</t>
+          <t>-24,25; -12,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,23; -11,03</t>
+          <t>-22,26; -10,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 3,31</t>
+          <t>-8,34; 3,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,47</t>
+          <t>-8,39; 4,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 0,18</t>
+          <t>-12,4; 0,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,73; 19,05</t>
+          <t>7,51; 18,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -5,79</t>
+          <t>-14,3; -5,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,74; -7,13</t>
+          <t>-15,25; -6,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,47</t>
+          <t>1,48; 9,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,35; -44,48</t>
+          <t>-68,36; -43,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,85; -37,99</t>
+          <t>-63,8; -37,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 11,83</t>
+          <t>-23,46; 11,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 16,13</t>
+          <t>-24,2; 16,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 0,82</t>
+          <t>-36,52; 1,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,35; 70,83</t>
+          <t>21,78; 70,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,94; -19,84</t>
+          <t>-42,95; -19,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-46,14; -24,48</t>
+          <t>-45,76; -23,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,28; 32,73</t>
+          <t>4,3; 33,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -0,17</t>
+          <t>-13,28; 0,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,58; -5,15</t>
+          <t>-18,61; -5,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 8,94</t>
+          <t>-4,34; 8,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,1; -0,37</t>
+          <t>-13,66; 0,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-23,6; -10,88</t>
+          <t>-23,26; -10,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,53; 47,27</t>
+          <t>4,53; 48,25</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -1,86</t>
+          <t>-11,74; -1,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -10,34</t>
+          <t>-19,45; -9,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,22; 43,03</t>
+          <t>3,07; 39,77</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-42,87; 0,04</t>
+          <t>-43,12; 1,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-59,33; -21,61</t>
+          <t>-58,94; -21,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 37,5</t>
+          <t>-13,45; 38,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -0,56</t>
+          <t>-30,87; 1,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-52,67; -27,83</t>
+          <t>-52,44; -28,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>10,7; 133,38</t>
+          <t>10,39; 136,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,89; -5,66</t>
+          <t>-31,71; -5,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-51,7; -31,1</t>
+          <t>-52,38; -30,38</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>8,73; 125,62</t>
+          <t>8,5; 120,67</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -3,07</t>
+          <t>-19,71; -2,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-22,48; -5,77</t>
+          <t>-22,01; -6,6</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 12,66</t>
+          <t>-2,34; 13,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 12,78</t>
+          <t>-1,82; 13,48</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 2,8</t>
+          <t>-12,07; 2,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,37; 28,3</t>
+          <t>15,48; 28,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 4,8</t>
+          <t>-6,79; 4,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -2,83</t>
+          <t>-13,87; -2,47</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,6; 19,97</t>
+          <t>9,96; 19,77</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,69; -8,65</t>
+          <t>-47,34; -7,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-54,3; -18,35</t>
+          <t>-52,71; -20,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 40,67</t>
+          <t>-5,85; 41,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 39,66</t>
+          <t>-4,36; 41,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 8,2</t>
+          <t>-29,59; 6,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>36,99; 87,08</t>
+          <t>36,43; 88,53</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 14,24</t>
+          <t>-16,45; 14,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-35,31; -8,63</t>
+          <t>-34,9; -7,08</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,65; 59,81</t>
+          <t>24,31; 58,33</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -5,53</t>
+          <t>-8,69; -5,44</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -6,46</t>
+          <t>-9,59; -6,4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,19</t>
+          <t>-1,89; 5,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -1,96</t>
+          <t>-6,16; -2,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -7,43</t>
+          <t>-11,53; -7,47</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>9,7; 24,86</t>
+          <t>9,71; 25,4</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -4,2</t>
+          <t>-6,92; -4,23</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -7,41</t>
+          <t>-10,04; -7,44</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>5,45; 15,58</t>
+          <t>5,53; 16,15</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-48,6; -33,0</t>
+          <t>-47,45; -32,95</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-52,57; -38,16</t>
+          <t>-52,57; -37,94</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 30,64</t>
+          <t>-9,58; 30,35</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-21,6; -7,21</t>
+          <t>-21,15; -7,26</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-39,64; -27,54</t>
+          <t>-40,24; -28,01</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>34,21; 90,53</t>
+          <t>34,71; 93,93</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-29,47; -18,92</t>
+          <t>-29,6; -19,24</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-42,53; -33,43</t>
+          <t>-42,51; -33,46</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>24,01; 68,35</t>
+          <t>23,99; 70,52</t>
         </is>
       </c>
     </row>
